--- a/ZeitplanIPA.xlsx
+++ b/ZeitplanIPA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr showObjects="none" filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD2AFDA0-8004-49AC-986A-A63D590A670C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0331481-0099-4983-B3BD-1B620DBC3B32}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5400" yWindow="0" windowWidth="19460" windowHeight="7350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4160" yWindow="680" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -459,51 +459,6 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -536,6 +491,51 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -829,8 +829,8 @@
   </sheetPr>
   <dimension ref="A1:AT76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54:S78"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43:C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -896,13 +896,13 @@
       <c r="C2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="34" t="s">
+      <c r="E2" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="39" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="1"/>
@@ -952,9 +952,9 @@
       <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -1002,45 +1002,45 @@
       <c r="C4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="25" t="s">
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="21" t="s">
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21" t="s">
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21" t="s">
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="21" t="s">
+      <c r="T4" s="34"/>
+      <c r="U4" s="34"/>
+      <c r="V4" s="34"/>
+      <c r="W4" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="X4" s="21"/>
-      <c r="Y4" s="21"/>
-      <c r="Z4" s="21"/>
-      <c r="AA4" s="21" t="s">
+      <c r="X4" s="34"/>
+      <c r="Y4" s="34"/>
+      <c r="Z4" s="34"/>
+      <c r="AA4" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="AB4" s="21"/>
-      <c r="AC4" s="21"/>
-      <c r="AD4" s="21"/>
+      <c r="AB4" s="34"/>
+      <c r="AC4" s="34"/>
+      <c r="AD4" s="34"/>
     </row>
     <row r="5" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
@@ -1048,57 +1048,57 @@
       <c r="C5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="35" t="s">
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27" t="s">
+      <c r="H5" s="33"/>
+      <c r="I5" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27" t="s">
+      <c r="J5" s="33"/>
+      <c r="K5" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27" t="s">
+      <c r="L5" s="33"/>
+      <c r="M5" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27" t="s">
+      <c r="N5" s="33"/>
+      <c r="O5" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27" t="s">
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="R5" s="27"/>
-      <c r="S5" s="27" t="s">
+      <c r="R5" s="33"/>
+      <c r="S5" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="T5" s="27"/>
-      <c r="U5" s="27" t="s">
+      <c r="T5" s="33"/>
+      <c r="U5" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="V5" s="27"/>
-      <c r="W5" s="27" t="s">
+      <c r="V5" s="33"/>
+      <c r="W5" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="X5" s="27"/>
-      <c r="Y5" s="27" t="s">
+      <c r="X5" s="33"/>
+      <c r="Y5" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="Z5" s="27"/>
-      <c r="AA5" s="27" t="s">
+      <c r="Z5" s="33"/>
+      <c r="AA5" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="AB5" s="27"/>
-      <c r="AC5" s="27" t="s">
+      <c r="AB5" s="33"/>
+      <c r="AC5" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="AD5" s="27"/>
+      <c r="AD5" s="33"/>
     </row>
     <row r="6" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
@@ -1137,22 +1137,22 @@
     <row r="7" spans="1:46" ht="10.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="41">
         <f>SUM(G7:AD7)</f>
         <v>2</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="41">
         <f>SUM(G8:AD8)</f>
         <v>1</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="41">
         <f>SUM($D$7:D7)-SUM($E$7:E7)</f>
         <v>1</v>
       </c>
-      <c r="G7" s="39">
+      <c r="G7" s="24">
         <v>2</v>
       </c>
       <c r="H7" s="20"/>
@@ -1182,11 +1182,11 @@
     <row r="8" spans="1:46" ht="10.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="42">
+      <c r="C8" s="38"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="27">
         <v>1</v>
       </c>
       <c r="H8" s="12"/>
@@ -1216,23 +1216,23 @@
     <row r="9" spans="1:46" ht="10.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="41">
         <f>SUM(G9:AD9)</f>
         <v>1</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="41">
         <f>SUM(G10:AD10)</f>
         <v>1</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="41">
         <f>SUM($D$7:D9)-SUM($E$7:E9)</f>
         <v>1</v>
       </c>
       <c r="G9" s="11"/>
-      <c r="H9" s="40">
+      <c r="H9" s="25">
         <v>1</v>
       </c>
       <c r="I9" s="20"/>
@@ -1261,12 +1261,12 @@
     <row r="10" spans="1:46" ht="10.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
       <c r="G10" s="14"/>
-      <c r="H10" s="44">
+      <c r="H10" s="29">
         <v>1</v>
       </c>
       <c r="I10" s="12"/>
@@ -1295,23 +1295,23 @@
     <row r="11" spans="1:46" ht="10.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="41">
         <f>SUM(G11:AD11)</f>
         <v>1</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="41">
         <f>SUM(G12:AD12)</f>
         <v>1</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="41">
         <f>SUM($D$7:D11)-SUM($E$7:E11)</f>
         <v>1</v>
       </c>
       <c r="G11" s="11"/>
-      <c r="H11" s="40">
+      <c r="H11" s="25">
         <v>1</v>
       </c>
       <c r="I11" s="20"/>
@@ -1340,12 +1340,12 @@
     <row r="12" spans="1:46" ht="10.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
       <c r="G12" s="14"/>
-      <c r="H12" s="44">
+      <c r="H12" s="29">
         <v>1</v>
       </c>
       <c r="I12" s="12"/>
@@ -1374,24 +1374,24 @@
     <row r="13" spans="1:46" ht="10.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="41">
         <f>SUM(G13:AD13)</f>
         <v>1</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="41">
         <f>SUM(G14:AD14)</f>
         <v>2</v>
       </c>
-      <c r="F13" s="23">
+      <c r="F13" s="41">
         <f>SUM($D$7:D13)-SUM($E$7:E13)</f>
         <v>0</v>
       </c>
       <c r="G13" s="11"/>
       <c r="H13" s="20"/>
-      <c r="I13" s="40">
+      <c r="I13" s="25">
         <v>1</v>
       </c>
       <c r="J13" s="10"/>
@@ -1419,13 +1419,13 @@
     <row r="14" spans="1:46" ht="10.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
       <c r="G14" s="14"/>
       <c r="H14" s="12"/>
-      <c r="I14" s="43">
+      <c r="I14" s="28">
         <v>2</v>
       </c>
       <c r="J14" s="13"/>
@@ -1453,27 +1453,27 @@
     <row r="15" spans="1:46" ht="10.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="41">
         <f>SUM(G15:AD15)</f>
         <v>2</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="41">
         <f>SUM(G16:AD16)</f>
         <v>2</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F15" s="41">
         <f>SUM($D$7:D15)-SUM($E$7:E15)</f>
         <v>0</v>
       </c>
       <c r="G15" s="11"/>
       <c r="H15" s="20"/>
-      <c r="I15" s="40">
-        <v>1</v>
-      </c>
-      <c r="J15" s="41">
+      <c r="I15" s="25">
+        <v>1</v>
+      </c>
+      <c r="J15" s="26">
         <v>1</v>
       </c>
       <c r="K15" s="11"/>
@@ -1500,16 +1500,16 @@
     <row r="16" spans="1:46" ht="10.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
       <c r="G16" s="14"/>
       <c r="H16" s="12"/>
-      <c r="I16" s="44">
-        <v>1</v>
-      </c>
-      <c r="J16" s="45">
+      <c r="I16" s="29">
+        <v>1</v>
+      </c>
+      <c r="J16" s="30">
         <v>1</v>
       </c>
       <c r="K16" s="14"/>
@@ -1536,31 +1536,31 @@
     <row r="17" spans="1:30" ht="10.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="41">
         <f>SUM(G17:AD17)</f>
         <v>4</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="41">
         <f>SUM(G18:AD18)</f>
         <v>3</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="41">
         <f>SUM($D$7:D17)-SUM($E$7:E17)</f>
         <v>1</v>
       </c>
       <c r="G17" s="11"/>
       <c r="H17" s="20"/>
       <c r="I17" s="20"/>
-      <c r="J17" s="41">
-        <v>1</v>
-      </c>
-      <c r="K17" s="39">
-        <v>2</v>
-      </c>
-      <c r="L17" s="40">
+      <c r="J17" s="26">
+        <v>1</v>
+      </c>
+      <c r="K17" s="24">
+        <v>2</v>
+      </c>
+      <c r="L17" s="25">
         <v>1</v>
       </c>
       <c r="M17" s="20"/>
@@ -1585,20 +1585,20 @@
     <row r="18" spans="1:30" ht="10.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
       <c r="G18" s="14"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
-      <c r="J18" s="45">
-        <v>1</v>
-      </c>
-      <c r="K18" s="46">
-        <v>2</v>
-      </c>
-      <c r="L18" s="47">
+      <c r="J18" s="30">
+        <v>1</v>
+      </c>
+      <c r="K18" s="31">
+        <v>2</v>
+      </c>
+      <c r="L18" s="32">
         <v>0</v>
       </c>
       <c r="M18" s="12"/>
@@ -1657,18 +1657,18 @@
     <row r="20" spans="1:30" ht="10.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="23">
+      <c r="D20" s="41">
         <f>SUM(G20:AD20)</f>
         <v>1</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E20" s="41">
         <f>SUM(G21:AD21)</f>
         <v>1</v>
       </c>
-      <c r="F20" s="23">
+      <c r="F20" s="41">
         <f>SUM($D$7:D20)-SUM($E$7:E20)</f>
         <v>1</v>
       </c>
@@ -1677,7 +1677,7 @@
       <c r="I20" s="20"/>
       <c r="J20" s="10"/>
       <c r="K20" s="11"/>
-      <c r="L20" s="40">
+      <c r="L20" s="25">
         <v>1</v>
       </c>
       <c r="M20" s="20"/>
@@ -1702,16 +1702,16 @@
     <row r="21" spans="1:30" ht="10.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
       <c r="G21" s="14"/>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
       <c r="J21" s="13"/>
       <c r="K21" s="14"/>
-      <c r="L21" s="44">
+      <c r="L21" s="29">
         <v>1</v>
       </c>
       <c r="M21" s="12"/>
@@ -1736,18 +1736,18 @@
     <row r="22" spans="1:30" ht="10.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="23">
+      <c r="D22" s="41">
         <f>SUM(G22:AD22)</f>
         <v>8</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22" s="41">
         <f>SUM(G23:AD23)</f>
         <v>10</v>
       </c>
-      <c r="F22" s="23">
+      <c r="F22" s="41">
         <f>SUM($D$7:D22)-SUM($E$7:E22)</f>
         <v>-1</v>
       </c>
@@ -1757,16 +1757,16 @@
       <c r="J22" s="16"/>
       <c r="K22" s="11"/>
       <c r="L22" s="20"/>
-      <c r="M22" s="40">
-        <v>2</v>
-      </c>
-      <c r="N22" s="41">
-        <v>2</v>
-      </c>
-      <c r="O22" s="39">
-        <v>2</v>
-      </c>
-      <c r="P22" s="40">
+      <c r="M22" s="25">
+        <v>2</v>
+      </c>
+      <c r="N22" s="26">
+        <v>2</v>
+      </c>
+      <c r="O22" s="24">
+        <v>2</v>
+      </c>
+      <c r="P22" s="25">
         <v>2</v>
       </c>
       <c r="Q22" s="20"/>
@@ -1787,29 +1787,29 @@
     <row r="23" spans="1:30" ht="10.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
       <c r="G23" s="14"/>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
       <c r="J23" s="13"/>
       <c r="K23" s="14"/>
       <c r="L23" s="12"/>
-      <c r="M23" s="44">
-        <v>2</v>
-      </c>
-      <c r="N23" s="45">
-        <v>2</v>
-      </c>
-      <c r="O23" s="46">
-        <v>2</v>
-      </c>
-      <c r="P23" s="44">
-        <v>2</v>
-      </c>
-      <c r="Q23" s="43">
+      <c r="M23" s="29">
+        <v>2</v>
+      </c>
+      <c r="N23" s="30">
+        <v>2</v>
+      </c>
+      <c r="O23" s="31">
+        <v>2</v>
+      </c>
+      <c r="P23" s="29">
+        <v>2</v>
+      </c>
+      <c r="Q23" s="28">
         <v>2</v>
       </c>
       <c r="R23" s="13"/>
@@ -1829,18 +1829,18 @@
     <row r="24" spans="1:30" ht="10.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="28" t="s">
+      <c r="C24" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="23">
+      <c r="D24" s="41">
         <f>SUM(G24:AD24)</f>
         <v>2</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E24" s="41">
         <f>SUM(G25:AD25)</f>
         <v>1</v>
       </c>
-      <c r="F24" s="23">
+      <c r="F24" s="41">
         <f>SUM($D$7:D24)-SUM($E$7:E24)</f>
         <v>0</v>
       </c>
@@ -1851,10 +1851,10 @@
       <c r="K24" s="17"/>
       <c r="L24" s="15"/>
       <c r="M24" s="15"/>
-      <c r="N24" s="38"/>
+      <c r="N24" s="23"/>
       <c r="O24" s="11"/>
       <c r="P24" s="20"/>
-      <c r="Q24" s="40">
+      <c r="Q24" s="25">
         <v>2</v>
       </c>
       <c r="R24" s="10"/>
@@ -1874,10 +1874,10 @@
     <row r="25" spans="1:30" ht="10.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
       <c r="G25" s="14"/>
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
@@ -1888,7 +1888,7 @@
       <c r="N25" s="13"/>
       <c r="O25" s="14"/>
       <c r="P25" s="12"/>
-      <c r="Q25" s="47">
+      <c r="Q25" s="32">
         <v>1</v>
       </c>
       <c r="R25" s="13"/>
@@ -1908,18 +1908,18 @@
     <row r="26" spans="1:30" ht="10.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="23">
+      <c r="D26" s="41">
         <f>SUM(G26:AD26)</f>
         <v>2</v>
       </c>
-      <c r="E26" s="23">
+      <c r="E26" s="41">
         <f>SUM(G27:AD27)</f>
         <v>2</v>
       </c>
-      <c r="F26" s="23">
+      <c r="F26" s="41">
         <f>SUM($D$7:D26)-SUM($E$7:E26)</f>
         <v>0</v>
       </c>
@@ -1930,11 +1930,11 @@
       <c r="K26" s="17"/>
       <c r="L26" s="15"/>
       <c r="M26" s="15"/>
-      <c r="N26" s="38"/>
+      <c r="N26" s="23"/>
       <c r="O26" s="11"/>
       <c r="P26" s="20"/>
       <c r="Q26" s="20"/>
-      <c r="R26" s="41">
+      <c r="R26" s="26">
         <v>2</v>
       </c>
       <c r="S26" s="17"/>
@@ -1953,10 +1953,10 @@
     <row r="27" spans="1:30" ht="10.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
       <c r="G27" s="14"/>
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
@@ -1968,7 +1968,7 @@
       <c r="O27" s="14"/>
       <c r="P27" s="12"/>
       <c r="Q27" s="12"/>
-      <c r="R27" s="45">
+      <c r="R27" s="30">
         <v>2</v>
       </c>
       <c r="S27" s="14"/>
@@ -2021,18 +2021,18 @@
     <row r="29" spans="1:30" ht="10.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="23">
+      <c r="D29" s="41">
         <f>SUM(G29:AD29)</f>
         <v>4</v>
       </c>
-      <c r="E29" s="23">
+      <c r="E29" s="41">
         <f>SUM(G30:AD30)</f>
         <v>3</v>
       </c>
-      <c r="F29" s="23">
+      <c r="F29" s="41">
         <f>SUM($D$7:D29)-SUM($E$7:E29)</f>
         <v>1</v>
       </c>
@@ -2043,15 +2043,15 @@
       <c r="K29" s="17"/>
       <c r="L29" s="15"/>
       <c r="M29" s="15"/>
-      <c r="N29" s="38"/>
+      <c r="N29" s="23"/>
       <c r="O29" s="17"/>
       <c r="P29" s="15"/>
       <c r="Q29" s="15"/>
-      <c r="R29" s="38"/>
-      <c r="S29" s="39">
-        <v>2</v>
-      </c>
-      <c r="T29" s="40">
+      <c r="R29" s="23"/>
+      <c r="S29" s="24">
+        <v>2</v>
+      </c>
+      <c r="T29" s="25">
         <v>2</v>
       </c>
       <c r="U29" s="20"/>
@@ -2068,10 +2068,10 @@
     <row r="30" spans="1:30" ht="10.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
       <c r="G30" s="14"/>
       <c r="H30" s="12"/>
       <c r="I30" s="12"/>
@@ -2084,10 +2084,10 @@
       <c r="P30" s="12"/>
       <c r="Q30" s="12"/>
       <c r="R30" s="13"/>
-      <c r="S30" s="46">
-        <v>2</v>
-      </c>
-      <c r="T30" s="47">
+      <c r="S30" s="31">
+        <v>2</v>
+      </c>
+      <c r="T30" s="32">
         <v>1</v>
       </c>
       <c r="U30" s="12"/>
@@ -2104,18 +2104,18 @@
     <row r="31" spans="1:30" ht="10.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="D31" s="23">
+      <c r="D31" s="41">
         <f>SUM(G31:AD31)</f>
         <v>2</v>
       </c>
-      <c r="E31" s="23">
+      <c r="E31" s="41">
         <f>SUM(G32:AD32)</f>
         <v>1</v>
       </c>
-      <c r="F31" s="23">
+      <c r="F31" s="41">
         <f>SUM($D$7:D31)-SUM($E$7:E31)</f>
         <v>2</v>
       </c>
@@ -2126,14 +2126,14 @@
       <c r="K31" s="17"/>
       <c r="L31" s="15"/>
       <c r="M31" s="15"/>
-      <c r="N31" s="38"/>
+      <c r="N31" s="23"/>
       <c r="O31" s="17"/>
       <c r="P31" s="15"/>
       <c r="Q31" s="15"/>
-      <c r="R31" s="38"/>
+      <c r="R31" s="23"/>
       <c r="S31" s="11"/>
       <c r="T31" s="20"/>
-      <c r="U31" s="40">
+      <c r="U31" s="25">
         <v>2</v>
       </c>
       <c r="V31" s="10"/>
@@ -2149,10 +2149,10 @@
     <row r="32" spans="1:30" ht="10.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
       <c r="G32" s="14"/>
       <c r="H32" s="12"/>
       <c r="I32" s="12"/>
@@ -2167,7 +2167,7 @@
       <c r="R32" s="13"/>
       <c r="S32" s="14"/>
       <c r="T32" s="12"/>
-      <c r="U32" s="47">
+      <c r="U32" s="32">
         <v>1</v>
       </c>
       <c r="V32" s="13"/>
@@ -2183,18 +2183,18 @@
     <row r="33" spans="1:30" ht="10.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="22" t="s">
+      <c r="C33" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="D33" s="23">
+      <c r="D33" s="41">
         <f>SUM(G33:AD33)</f>
         <v>2</v>
       </c>
-      <c r="E33" s="23">
+      <c r="E33" s="41">
         <f>SUM(G34:AD34)</f>
         <v>2</v>
       </c>
-      <c r="F33" s="23">
+      <c r="F33" s="41">
         <f>SUM($D$7:D33)-SUM($E$7:E33)</f>
         <v>2</v>
       </c>
@@ -2205,15 +2205,15 @@
       <c r="K33" s="17"/>
       <c r="L33" s="15"/>
       <c r="M33" s="15"/>
-      <c r="N33" s="38"/>
+      <c r="N33" s="23"/>
       <c r="O33" s="17"/>
       <c r="P33" s="15"/>
       <c r="Q33" s="15"/>
-      <c r="R33" s="38"/>
+      <c r="R33" s="23"/>
       <c r="S33" s="11"/>
       <c r="T33" s="20"/>
       <c r="U33" s="20"/>
-      <c r="V33" s="41">
+      <c r="V33" s="26">
         <v>2</v>
       </c>
       <c r="W33" s="11"/>
@@ -2228,10 +2228,10 @@
     <row r="34" spans="1:30" ht="10.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
       <c r="G34" s="14"/>
       <c r="H34" s="12"/>
       <c r="I34" s="12"/>
@@ -2247,7 +2247,7 @@
       <c r="S34" s="14"/>
       <c r="T34" s="12"/>
       <c r="U34" s="12"/>
-      <c r="V34" s="45">
+      <c r="V34" s="30">
         <v>2</v>
       </c>
       <c r="W34" s="14"/>
@@ -2262,18 +2262,18 @@
     <row r="35" spans="1:30" ht="10.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
-      <c r="C35" s="22" t="s">
+      <c r="C35" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="D35" s="23">
+      <c r="D35" s="41">
         <f>SUM(G35:AD35)</f>
         <v>2</v>
       </c>
-      <c r="E35" s="23">
+      <c r="E35" s="41">
         <f>SUM(G36:AD36)</f>
         <v>4</v>
       </c>
-      <c r="F35" s="23">
+      <c r="F35" s="41">
         <f>SUM($D$7:D35)-SUM($E$7:E35)</f>
         <v>0</v>
       </c>
@@ -2284,16 +2284,16 @@
       <c r="K35" s="17"/>
       <c r="L35" s="15"/>
       <c r="M35" s="15"/>
-      <c r="N35" s="38"/>
+      <c r="N35" s="23"/>
       <c r="O35" s="17"/>
       <c r="P35" s="15"/>
       <c r="Q35" s="15"/>
-      <c r="R35" s="38"/>
+      <c r="R35" s="23"/>
       <c r="S35" s="11"/>
       <c r="T35" s="20"/>
       <c r="U35" s="20"/>
       <c r="V35" s="10"/>
-      <c r="W35" s="39">
+      <c r="W35" s="24">
         <v>2</v>
       </c>
       <c r="X35" s="20"/>
@@ -2307,10 +2307,10 @@
     <row r="36" spans="1:30" ht="10.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
       <c r="G36" s="14"/>
       <c r="H36" s="12"/>
       <c r="I36" s="12"/>
@@ -2327,10 +2327,10 @@
       <c r="T36" s="12"/>
       <c r="U36" s="12"/>
       <c r="V36" s="13"/>
-      <c r="W36" s="46">
-        <v>2</v>
-      </c>
-      <c r="X36" s="43">
+      <c r="W36" s="31">
+        <v>2</v>
+      </c>
+      <c r="X36" s="28">
         <v>2</v>
       </c>
       <c r="Y36" s="12"/>
@@ -2343,18 +2343,18 @@
     <row r="37" spans="1:30" ht="10.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
-      <c r="C37" s="22" t="s">
+      <c r="C37" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="23">
+      <c r="D37" s="41">
         <f>SUM(G37:AD37)</f>
         <v>2</v>
       </c>
-      <c r="E37" s="23">
+      <c r="E37" s="41">
         <f>SUM(G38:AD38)</f>
         <v>0</v>
       </c>
-      <c r="F37" s="23">
+      <c r="F37" s="41">
         <f>SUM($D$7:D37)-SUM($E$7:E37)</f>
         <v>2</v>
       </c>
@@ -2365,17 +2365,17 @@
       <c r="K37" s="17"/>
       <c r="L37" s="15"/>
       <c r="M37" s="15"/>
-      <c r="N37" s="38"/>
+      <c r="N37" s="23"/>
       <c r="O37" s="17"/>
       <c r="P37" s="15"/>
       <c r="Q37" s="15"/>
-      <c r="R37" s="38"/>
+      <c r="R37" s="23"/>
       <c r="S37" s="11"/>
       <c r="T37" s="20"/>
       <c r="U37" s="20"/>
       <c r="V37" s="10"/>
       <c r="W37" s="11"/>
-      <c r="X37" s="40">
+      <c r="X37" s="25">
         <v>2</v>
       </c>
       <c r="Y37" s="20"/>
@@ -2388,10 +2388,10 @@
     <row r="38" spans="1:30" ht="10.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
       <c r="G38" s="14"/>
       <c r="H38" s="12"/>
       <c r="I38" s="12"/>
@@ -2409,7 +2409,7 @@
       <c r="U38" s="12"/>
       <c r="V38" s="13"/>
       <c r="W38" s="14"/>
-      <c r="X38" s="47">
+      <c r="X38" s="32">
         <v>0</v>
       </c>
       <c r="Y38" s="12"/>
@@ -2422,18 +2422,18 @@
     <row r="39" spans="1:30" ht="10.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
-      <c r="C39" s="22" t="s">
+      <c r="C39" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="D39" s="23">
+      <c r="D39" s="41">
         <f>SUM(G39:AD39)</f>
         <v>1</v>
       </c>
-      <c r="E39" s="23">
+      <c r="E39" s="41">
         <f>SUM(G40:AD40)</f>
         <v>1</v>
       </c>
-      <c r="F39" s="23">
+      <c r="F39" s="41">
         <f>SUM($D$7:D39)-SUM($E$7:E39)</f>
         <v>2</v>
       </c>
@@ -2444,18 +2444,18 @@
       <c r="K39" s="17"/>
       <c r="L39" s="15"/>
       <c r="M39" s="15"/>
-      <c r="N39" s="38"/>
+      <c r="N39" s="23"/>
       <c r="O39" s="17"/>
       <c r="P39" s="15"/>
       <c r="Q39" s="15"/>
-      <c r="R39" s="38"/>
+      <c r="R39" s="23"/>
       <c r="S39" s="11"/>
       <c r="T39" s="20"/>
       <c r="U39" s="20"/>
       <c r="V39" s="10"/>
       <c r="W39" s="11"/>
       <c r="X39" s="20"/>
-      <c r="Y39" s="40">
+      <c r="Y39" s="25">
         <v>1</v>
       </c>
       <c r="Z39" s="10"/>
@@ -2467,10 +2467,10 @@
     <row r="40" spans="1:30" ht="10.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
       <c r="G40" s="14"/>
       <c r="H40" s="12"/>
       <c r="I40" s="12"/>
@@ -2489,7 +2489,7 @@
       <c r="V40" s="13"/>
       <c r="W40" s="14"/>
       <c r="X40" s="12"/>
-      <c r="Y40" s="44">
+      <c r="Y40" s="29">
         <v>1</v>
       </c>
       <c r="Z40" s="13"/>
@@ -2501,18 +2501,18 @@
     <row r="41" spans="1:30" ht="10.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
-      <c r="C41" s="22" t="s">
+      <c r="C41" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="D41" s="23">
+      <c r="D41" s="41">
         <f>SUM(G41:AD41)</f>
         <v>1</v>
       </c>
-      <c r="E41" s="23">
+      <c r="E41" s="41">
         <f>SUM(G42:AD42)</f>
         <v>1</v>
       </c>
-      <c r="F41" s="23">
+      <c r="F41" s="41">
         <f>SUM($D$7:D41)-SUM($E$7:E41)</f>
         <v>2</v>
       </c>
@@ -2523,18 +2523,18 @@
       <c r="K41" s="17"/>
       <c r="L41" s="15"/>
       <c r="M41" s="15"/>
-      <c r="N41" s="38"/>
+      <c r="N41" s="23"/>
       <c r="O41" s="17"/>
       <c r="P41" s="15"/>
       <c r="Q41" s="15"/>
-      <c r="R41" s="38"/>
+      <c r="R41" s="23"/>
       <c r="S41" s="11"/>
       <c r="T41" s="20"/>
       <c r="U41" s="20"/>
       <c r="V41" s="10"/>
       <c r="W41" s="11"/>
       <c r="X41" s="20"/>
-      <c r="Y41" s="41">
+      <c r="Y41" s="26">
         <v>1</v>
       </c>
       <c r="AA41" s="11"/>
@@ -2545,10 +2545,10 @@
     <row r="42" spans="1:30" ht="10.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="42"/>
       <c r="G42" s="14"/>
       <c r="H42" s="12"/>
       <c r="I42" s="12"/>
@@ -2567,7 +2567,7 @@
       <c r="V42" s="13"/>
       <c r="W42" s="14"/>
       <c r="X42" s="12"/>
-      <c r="Y42" s="44">
+      <c r="Y42" s="29">
         <v>1</v>
       </c>
       <c r="Z42" s="13"/>
@@ -2579,18 +2579,18 @@
     <row r="43" spans="1:30" ht="10.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
-      <c r="C43" s="22" t="s">
+      <c r="C43" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="23">
+      <c r="D43" s="41">
         <f>SUM(G43:AD43)</f>
         <v>4</v>
       </c>
-      <c r="E43" s="23">
+      <c r="E43" s="41">
         <f>SUM(G44:AD44)</f>
         <v>7</v>
       </c>
-      <c r="F43" s="23">
+      <c r="F43" s="41">
         <f>SUM($D$7:D43)-SUM($E$7:E43)</f>
         <v>-1</v>
       </c>
@@ -2601,11 +2601,11 @@
       <c r="K43" s="17"/>
       <c r="L43" s="15"/>
       <c r="M43" s="15"/>
-      <c r="N43" s="38"/>
+      <c r="N43" s="23"/>
       <c r="O43" s="17"/>
       <c r="P43" s="15"/>
       <c r="Q43" s="15"/>
-      <c r="R43" s="38"/>
+      <c r="R43" s="23"/>
       <c r="S43" s="11"/>
       <c r="T43" s="20"/>
       <c r="U43" s="20"/>
@@ -2613,10 +2613,10 @@
       <c r="W43" s="11"/>
       <c r="X43" s="20"/>
       <c r="Y43" s="20"/>
-      <c r="Z43" s="41">
-        <v>2</v>
-      </c>
-      <c r="AA43" s="39">
+      <c r="Z43" s="26">
+        <v>2</v>
+      </c>
+      <c r="AA43" s="24">
         <v>2</v>
       </c>
       <c r="AB43" s="20"/>
@@ -2626,10 +2626,10 @@
     <row r="44" spans="1:30" ht="10.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
       <c r="G44" s="14"/>
       <c r="H44" s="12"/>
       <c r="I44" s="12"/>
@@ -2649,16 +2649,16 @@
       <c r="W44" s="14"/>
       <c r="X44" s="12"/>
       <c r="Y44" s="12"/>
-      <c r="Z44" s="45">
-        <v>2</v>
-      </c>
-      <c r="AA44" s="46">
-        <v>2</v>
-      </c>
-      <c r="AB44" s="43">
-        <v>2</v>
-      </c>
-      <c r="AC44" s="43">
+      <c r="Z44" s="30">
+        <v>2</v>
+      </c>
+      <c r="AA44" s="31">
+        <v>2</v>
+      </c>
+      <c r="AB44" s="28">
+        <v>2</v>
+      </c>
+      <c r="AC44" s="28">
         <v>1</v>
       </c>
       <c r="AD44" s="13"/>
@@ -2768,48 +2768,48 @@
       </c>
       <c r="E48" s="8"/>
       <c r="F48" s="9"/>
-      <c r="G48" s="29">
+      <c r="G48" s="35">
         <f>SUM(G7:J7,G9:J9,G11:J11,G13:J13,G15:J15,G17:J17,G20:J20,G22:J22,G24:J24,G26:J26,G29:J29,G31:J31,G33:J33,G35:J35,G37:J37,G39:J39,G41:J41,G43:J43)</f>
         <v>8</v>
       </c>
-      <c r="H48" s="30"/>
-      <c r="I48" s="30"/>
-      <c r="J48" s="31"/>
-      <c r="K48" s="29">
+      <c r="H48" s="36"/>
+      <c r="I48" s="36"/>
+      <c r="J48" s="37"/>
+      <c r="K48" s="35">
         <f>SUM(K7:N7,K9:N9,K11:N11,K13:N13,K15:N15,K17:N17,K20:N20,K22:N22,K24:N24,K26:N26,K29:N29,K31:N31,K33:N33,K35:N35,K37:N37,K39:N39,K41:N41,K43:N43)</f>
         <v>8</v>
       </c>
-      <c r="L48" s="30"/>
-      <c r="M48" s="30"/>
-      <c r="N48" s="31"/>
-      <c r="O48" s="29">
+      <c r="L48" s="36"/>
+      <c r="M48" s="36"/>
+      <c r="N48" s="37"/>
+      <c r="O48" s="35">
         <f t="shared" ref="O48:O49" si="0">SUM(O7:R7,O9:R9,O11:R11,O13:R13,O15:R15,O17:R17,O20:R20,O22:R22,O24:R24,O26:R26,O29:R29,O31:R31,O33:R33,O35:R35,O37:R37,O39:R39,O41:R41,O43:R43)</f>
         <v>8</v>
       </c>
-      <c r="P48" s="30"/>
-      <c r="Q48" s="30"/>
-      <c r="R48" s="31"/>
-      <c r="S48" s="29">
+      <c r="P48" s="36"/>
+      <c r="Q48" s="36"/>
+      <c r="R48" s="37"/>
+      <c r="S48" s="35">
         <f t="shared" ref="S48:S49" si="1">SUM(S7:V7,S9:V9,S11:V11,S13:V13,S15:V15,S17:V17,S20:V20,S22:V22,S24:V24,S26:V26,S29:V29,S31:V31,S33:V33,S35:V35,S37:V37,S39:V39,S41:V41,S43:V43)</f>
         <v>8</v>
       </c>
-      <c r="T48" s="30"/>
-      <c r="U48" s="30"/>
-      <c r="V48" s="31"/>
-      <c r="W48" s="29">
+      <c r="T48" s="36"/>
+      <c r="U48" s="36"/>
+      <c r="V48" s="37"/>
+      <c r="W48" s="35">
         <f t="shared" ref="W48:W49" si="2">SUM(W7:Z7,W9:Z9,W11:Z11,W13:Z13,W15:Z15,W17:Z17,W20:Z20,W22:Z22,W24:Z24,W26:Z26,W29:Z29,W31:Z31,W33:Z33,W35:Z35,W37:Z37,W39:Z39,W41:Z41,W43:Z43)</f>
         <v>8</v>
       </c>
-      <c r="X48" s="30"/>
-      <c r="Y48" s="30"/>
-      <c r="Z48" s="31"/>
-      <c r="AA48" s="29">
+      <c r="X48" s="36"/>
+      <c r="Y48" s="36"/>
+      <c r="Z48" s="37"/>
+      <c r="AA48" s="35">
         <f t="shared" ref="AA48:AA49" si="3">SUM(AA7:AD7,AA9:AD9,AA11:AD11,AA13:AD13,AA15:AD15,AA17:AD17,AA20:AD20,AA22:AD22,AA24:AD24,AA26:AD26,AA29:AD29,AA31:AD31,AA33:AD33,AA35:AD35,AA37:AD37,AA39:AD39,AA41:AD41,AA43:AD43)</f>
         <v>2</v>
       </c>
-      <c r="AB48" s="30"/>
-      <c r="AC48" s="30"/>
-      <c r="AD48" s="31"/>
+      <c r="AB48" s="36"/>
+      <c r="AC48" s="36"/>
+      <c r="AD48" s="37"/>
     </row>
     <row r="49" spans="2:46" x14ac:dyDescent="0.35">
       <c r="B49" s="1"/>
@@ -2822,59 +2822,59 @@
         <v>43</v>
       </c>
       <c r="F49" s="9"/>
-      <c r="G49" s="29">
+      <c r="G49" s="35">
         <f>SUM(G8:J8,G10:J10,G12:J12,G14:J14,G16:J16,G18:J18,G21:J21,G23:J23,G25:J25,G27:J27,G30:J30,G32:J32,G34:J34,G36:J36,G38:J38,G40:J40,G42:J42,G44:J44)</f>
         <v>8</v>
       </c>
-      <c r="H49" s="30"/>
-      <c r="I49" s="30"/>
-      <c r="J49" s="31"/>
-      <c r="K49" s="29">
+      <c r="H49" s="36"/>
+      <c r="I49" s="36"/>
+      <c r="J49" s="37"/>
+      <c r="K49" s="35">
         <f t="shared" ref="K49" si="4">SUM(K8:N8,K10:N10,K12:N12,K14:N14,K16:N16,K18:N18,K21:N21,K23:N23,K25:N25,K27:N27,K30:N30,K32:N32,K34:N34,K36:N36,K38:N38,K40:N40,K42:N42,K44:N44)</f>
         <v>7</v>
       </c>
-      <c r="L49" s="30"/>
-      <c r="M49" s="30"/>
-      <c r="N49" s="31"/>
-      <c r="O49" s="29">
+      <c r="L49" s="36"/>
+      <c r="M49" s="36"/>
+      <c r="N49" s="37"/>
+      <c r="O49" s="35">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="P49" s="30"/>
-      <c r="Q49" s="30"/>
-      <c r="R49" s="31"/>
-      <c r="S49" s="29">
+      <c r="P49" s="36"/>
+      <c r="Q49" s="36"/>
+      <c r="R49" s="37"/>
+      <c r="S49" s="35">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="T49" s="30"/>
-      <c r="U49" s="30"/>
-      <c r="V49" s="31"/>
-      <c r="W49" s="29">
+      <c r="T49" s="36"/>
+      <c r="U49" s="36"/>
+      <c r="V49" s="37"/>
+      <c r="W49" s="35">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="X49" s="30"/>
-      <c r="Y49" s="30"/>
-      <c r="Z49" s="31"/>
-      <c r="AA49" s="29">
+      <c r="X49" s="36"/>
+      <c r="Y49" s="36"/>
+      <c r="Z49" s="37"/>
+      <c r="AA49" s="35">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="AB49" s="30"/>
-      <c r="AC49" s="30"/>
-      <c r="AD49" s="31"/>
+      <c r="AB49" s="36"/>
+      <c r="AC49" s="36"/>
+      <c r="AD49" s="37"/>
     </row>
     <row r="50" spans="2:46" x14ac:dyDescent="0.35">
       <c r="B50" s="1"/>
       <c r="C50" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D50" s="32">
+      <c r="D50" s="43">
         <f>D48-E49</f>
         <v>-1</v>
       </c>
-      <c r="E50" s="33"/>
+      <c r="E50" s="44"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
@@ -2965,118 +2965,109 @@
       <c r="AT51" s="1"/>
     </row>
     <row r="54" spans="2:46" x14ac:dyDescent="0.35">
-      <c r="C54" s="36"/>
+      <c r="C54" s="21"/>
     </row>
     <row r="55" spans="2:46" x14ac:dyDescent="0.35">
-      <c r="C55" s="36"/>
+      <c r="C55" s="21"/>
     </row>
     <row r="56" spans="2:46" x14ac:dyDescent="0.35">
-      <c r="C56" s="37"/>
+      <c r="C56" s="22"/>
     </row>
     <row r="57" spans="2:46" x14ac:dyDescent="0.35">
-      <c r="C57" s="37"/>
+      <c r="C57" s="22"/>
     </row>
     <row r="58" spans="2:46" x14ac:dyDescent="0.35">
-      <c r="C58" s="37"/>
+      <c r="C58" s="22"/>
     </row>
     <row r="59" spans="2:46" x14ac:dyDescent="0.35">
-      <c r="C59" s="37"/>
+      <c r="C59" s="22"/>
     </row>
     <row r="60" spans="2:46" x14ac:dyDescent="0.35">
-      <c r="C60" s="37"/>
+      <c r="C60" s="22"/>
     </row>
     <row r="61" spans="2:46" x14ac:dyDescent="0.35">
-      <c r="C61" s="37"/>
+      <c r="C61" s="22"/>
     </row>
     <row r="62" spans="2:46" x14ac:dyDescent="0.35">
-      <c r="C62" s="36"/>
+      <c r="C62" s="21"/>
     </row>
     <row r="63" spans="2:46" x14ac:dyDescent="0.35">
-      <c r="C63" s="37"/>
+      <c r="C63" s="22"/>
     </row>
     <row r="64" spans="2:46" x14ac:dyDescent="0.35">
-      <c r="C64" s="37"/>
+      <c r="C64" s="22"/>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C65" s="37"/>
+      <c r="C65" s="22"/>
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C66" s="37"/>
+      <c r="C66" s="22"/>
     </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C67" s="36"/>
+      <c r="C67" s="21"/>
     </row>
     <row r="68" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C68" s="37"/>
+      <c r="C68" s="22"/>
     </row>
     <row r="69" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C69" s="37"/>
+      <c r="C69" s="22"/>
     </row>
     <row r="70" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C70" s="37"/>
+      <c r="C70" s="22"/>
     </row>
     <row r="71" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C71" s="37"/>
+      <c r="C71" s="22"/>
     </row>
     <row r="72" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C72" s="37"/>
+      <c r="C72" s="22"/>
     </row>
     <row r="73" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C73" s="37"/>
+      <c r="C73" s="22"/>
     </row>
     <row r="74" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C74" s="37"/>
+      <c r="C74" s="22"/>
     </row>
     <row r="75" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C75" s="37"/>
+      <c r="C75" s="22"/>
     </row>
     <row r="76" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C76" s="36"/>
+      <c r="C76" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="106">
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="AA4:AD4"/>
-    <mergeCell ref="AA48:AD48"/>
-    <mergeCell ref="W48:Z48"/>
-    <mergeCell ref="S48:V48"/>
-    <mergeCell ref="AA49:AD49"/>
-    <mergeCell ref="W49:Z49"/>
-    <mergeCell ref="S49:V49"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="G49:J49"/>
-    <mergeCell ref="K49:N49"/>
-    <mergeCell ref="O49:R49"/>
-    <mergeCell ref="G48:J48"/>
-    <mergeCell ref="K48:N48"/>
-    <mergeCell ref="O48:R48"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="S4:V4"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="D15:D16"/>
     <mergeCell ref="D37:D38"/>
     <mergeCell ref="E37:E38"/>
     <mergeCell ref="D39:D40"/>
@@ -3101,42 +3092,51 @@
     <mergeCell ref="E33:E34"/>
     <mergeCell ref="D35:D36"/>
     <mergeCell ref="E35:E36"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="G49:J49"/>
+    <mergeCell ref="K49:N49"/>
+    <mergeCell ref="O49:R49"/>
+    <mergeCell ref="G48:J48"/>
+    <mergeCell ref="K48:N48"/>
+    <mergeCell ref="O48:R48"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E13:E14"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="F15:F16"/>
     <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="S4:V4"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="AA4:AD4"/>
+    <mergeCell ref="AA48:AD48"/>
+    <mergeCell ref="W48:Z48"/>
+    <mergeCell ref="S48:V48"/>
+    <mergeCell ref="AA49:AD49"/>
+    <mergeCell ref="W49:Z49"/>
+    <mergeCell ref="S49:V49"/>
     <mergeCell ref="W4:Z4"/>
     <mergeCell ref="Y5:Z5"/>
     <mergeCell ref="AA5:AB5"/>
